--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>1933.449712215681</v>
+        <v>1161.818745418105</v>
       </c>
       <c r="R2">
-        <v>7733.798848862725</v>
+        <v>4647.27498167242</v>
       </c>
       <c r="S2">
-        <v>0.0124858464229078</v>
+        <v>0.005115748831893207</v>
       </c>
       <c r="T2">
-        <v>0.006302327404102456</v>
+        <v>0.00253139216533719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>2850.522717486253</v>
+        <v>1892.4474799056</v>
       </c>
       <c r="R3">
-        <v>17103.13630491752</v>
+        <v>11354.6848794336</v>
       </c>
       <c r="S3">
-        <v>0.01840812753012159</v>
+        <v>0.008332871218446645</v>
       </c>
       <c r="T3">
-        <v>0.01393746679181242</v>
+        <v>0.006184949342792505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>1347.945734288202</v>
+        <v>1036.659403046437</v>
       </c>
       <c r="R4">
-        <v>8087.67440572921</v>
+        <v>6219.956418278624</v>
       </c>
       <c r="S4">
-        <v>0.008704774330773341</v>
+        <v>0.00456464414188585</v>
       </c>
       <c r="T4">
-        <v>0.006590703099315893</v>
+        <v>0.003388039013844422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>453.1573770807594</v>
+        <v>443.9319928809956</v>
       </c>
       <c r="R5">
-        <v>1812.629508323037</v>
+        <v>1775.727971523982</v>
       </c>
       <c r="S5">
-        <v>0.002926403195226682</v>
+        <v>0.001954732253182653</v>
       </c>
       <c r="T5">
-        <v>0.001477124611984049</v>
+        <v>0.0009672472346941403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>1044.85088892412</v>
+        <v>705.5574939495688</v>
       </c>
       <c r="R6">
-        <v>6269.105333544719</v>
+        <v>4233.344963697413</v>
       </c>
       <c r="S6">
-        <v>0.006747446107090658</v>
+        <v>0.003106728084514651</v>
       </c>
       <c r="T6">
-        <v>0.005108738294714477</v>
+        <v>0.002305922571084186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>991.9962250540266</v>
+        <v>781.2743731559711</v>
       </c>
       <c r="R7">
-        <v>5951.977350324159</v>
+        <v>4687.646238935827</v>
       </c>
       <c r="S7">
-        <v>0.006406120852212356</v>
+        <v>0.003440126506499447</v>
       </c>
       <c r="T7">
-        <v>0.0048503084572805</v>
+        <v>0.002553382575791581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>16631.05121367742</v>
+        <v>15053.09735237047</v>
       </c>
       <c r="R8">
-        <v>99786.30728206447</v>
+        <v>90318.5841142228</v>
       </c>
       <c r="S8">
-        <v>0.1074001304474198</v>
+        <v>0.06628216793752199</v>
       </c>
       <c r="T8">
-        <v>0.08131656786372492</v>
+        <v>0.04919695028005716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>24519.48400868282</v>
@@ -1013,10 +1013,10 @@
         <v>220675.3560781454</v>
       </c>
       <c r="S9">
-        <v>0.1583421124258368</v>
+        <v>0.1079647941391259</v>
       </c>
       <c r="T9">
-        <v>0.1798299091042275</v>
+        <v>0.1202028865651892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>11594.69232562297</v>
+        <v>13431.4711110058</v>
       </c>
       <c r="R10">
-        <v>104352.2309306067</v>
+        <v>120883.2399990522</v>
       </c>
       <c r="S10">
-        <v>0.07487629328238074</v>
+        <v>0.05914178344747552</v>
       </c>
       <c r="T10">
-        <v>0.08503737135210095</v>
+        <v>0.06584565963085194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>3897.946503842207</v>
+        <v>5751.802105985647</v>
       </c>
       <c r="R11">
-        <v>23387.67902305324</v>
+        <v>34510.81263591388</v>
       </c>
       <c r="S11">
-        <v>0.0251721889140373</v>
+        <v>0.02532647628644331</v>
       </c>
       <c r="T11">
-        <v>0.01905878512046065</v>
+        <v>0.0187981991748923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>8987.546215742983</v>
+        <v>9141.551284142233</v>
       </c>
       <c r="R12">
-        <v>80887.91594168685</v>
+        <v>82273.96155728008</v>
       </c>
       <c r="S12">
-        <v>0.05803984508081943</v>
+        <v>0.04025230311352291</v>
       </c>
       <c r="T12">
-        <v>0.06591613504080128</v>
+        <v>0.04481500718565237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>8532.903606653408</v>
+        <v>10122.57655887343</v>
       </c>
       <c r="R13">
-        <v>76796.13245988067</v>
+        <v>91103.18902986085</v>
       </c>
       <c r="S13">
-        <v>0.05510385054290237</v>
+        <v>0.04457197769534225</v>
       </c>
       <c r="T13">
-        <v>0.0625817117291796</v>
+        <v>0.04962432820457507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>11573.12019868921</v>
+        <v>16500.9033857721</v>
       </c>
       <c r="R14">
-        <v>69438.72119213524</v>
+        <v>99005.4203146326</v>
       </c>
       <c r="S14">
-        <v>0.07473698463514331</v>
+        <v>0.07265718301917047</v>
       </c>
       <c r="T14">
-        <v>0.05658610522814126</v>
+        <v>0.05392871011480044</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>17062.47741026458</v>
+        <v>26877.76656360668</v>
       </c>
       <c r="R15">
-        <v>153562.2966923812</v>
+        <v>241899.8990724601</v>
       </c>
       <c r="S15">
-        <v>0.110186197858107</v>
+        <v>0.1183488417999202</v>
       </c>
       <c r="T15">
-        <v>0.1251390021378204</v>
+        <v>0.1317639932482579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>8068.4477623939</v>
+        <v>14723.30922623008</v>
       </c>
       <c r="R16">
-        <v>72616.02986154509</v>
+        <v>132509.7830360707</v>
       </c>
       <c r="S16">
-        <v>0.05210448401942524</v>
+        <v>0.06483003676152878</v>
       </c>
       <c r="T16">
-        <v>0.05917531654457713</v>
+        <v>0.07217869136879163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>2712.480578493229</v>
+        <v>6305.01010013091</v>
       </c>
       <c r="R17">
-        <v>16274.88347095937</v>
+        <v>37830.06060078547</v>
       </c>
       <c r="S17">
-        <v>0.0175166779431647</v>
+        <v>0.02776237531200444</v>
       </c>
       <c r="T17">
-        <v>0.01326251769693809</v>
+        <v>0.02060620888514697</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>6254.201932859576</v>
+        <v>10020.78515834204</v>
       </c>
       <c r="R18">
-        <v>56287.81739573618</v>
+        <v>90187.06642507837</v>
       </c>
       <c r="S18">
-        <v>0.04038843334696814</v>
+        <v>0.04412376730071841</v>
       </c>
       <c r="T18">
-        <v>0.04586934067239531</v>
+        <v>0.04912531198681727</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>5937.827850738288</v>
+        <v>11096.16538730142</v>
       </c>
       <c r="R19">
-        <v>53440.45065664459</v>
+        <v>99865.48848571279</v>
       </c>
       <c r="S19">
-        <v>0.03834535036601591</v>
+        <v>0.04885890793417429</v>
       </c>
       <c r="T19">
-        <v>0.0435490013695512</v>
+        <v>0.05439719322339944</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>1190.511699988138</v>
+        <v>702.9536962900102</v>
       </c>
       <c r="R20">
-        <v>4762.046799952552</v>
+        <v>2811.814785160041</v>
       </c>
       <c r="S20">
-        <v>0.00768809561314755</v>
+        <v>0.003095262978715743</v>
       </c>
       <c r="T20">
-        <v>0.003880625632172048</v>
+        <v>0.001531608511569485</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>1755.194678614327</v>
+        <v>1145.017634016241</v>
       </c>
       <c r="R21">
-        <v>10531.16807168596</v>
+        <v>6870.105804097449</v>
       </c>
       <c r="S21">
-        <v>0.01133470969584691</v>
+        <v>0.005041769765565042</v>
       </c>
       <c r="T21">
-        <v>0.008581923377171268</v>
+        <v>0.003742178389726219</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>829.9906418461803</v>
+        <v>627.2265463431147</v>
       </c>
       <c r="R22">
-        <v>4979.943851077081</v>
+        <v>3763.359278058689</v>
       </c>
       <c r="S22">
-        <v>0.005359919950887269</v>
+        <v>0.002761819332354178</v>
       </c>
       <c r="T22">
-        <v>0.004058191480911078</v>
+        <v>0.002049919195527884</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>279.0293204638565</v>
+        <v>268.5992428059711</v>
       </c>
       <c r="R23">
-        <v>1116.117281855426</v>
+        <v>1074.396971223884</v>
       </c>
       <c r="S23">
-        <v>0.001801917691879124</v>
+        <v>0.001182702782211998</v>
       </c>
       <c r="T23">
-        <v>0.0009095318703128908</v>
+        <v>0.0005852289968086628</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>643.3615522286777</v>
+        <v>426.8946858302575</v>
       </c>
       <c r="R24">
-        <v>3860.169313372066</v>
+        <v>2561.368114981545</v>
       </c>
       <c r="S24">
-        <v>0.004154705180475235</v>
+        <v>0.001879713164372847</v>
       </c>
       <c r="T24">
-        <v>0.003145679286928652</v>
+        <v>0.001395189052590864</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>610.8165652353636</v>
+        <v>472.7068749687022</v>
       </c>
       <c r="R25">
-        <v>3664.899391412182</v>
+        <v>2836.241249812213</v>
       </c>
       <c r="S25">
-        <v>0.003944535913146123</v>
+        <v>0.002081434520647855</v>
       </c>
       <c r="T25">
-        <v>0.002986552445849033</v>
+        <v>0.001544913719781017</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>1083.704944882934</v>
+        <v>1868.984456350398</v>
       </c>
       <c r="R26">
-        <v>6502.229669297604</v>
+        <v>11213.90673810239</v>
       </c>
       <c r="S26">
-        <v>0.006998358128512141</v>
+        <v>0.008229558256920953</v>
       </c>
       <c r="T26">
-        <v>0.005298712965441095</v>
+        <v>0.006108266838438454</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>1597.727391058409</v>
+        <v>3044.325922913391</v>
       </c>
       <c r="R27">
-        <v>14379.54651952568</v>
+        <v>27398.93330622052</v>
       </c>
       <c r="S27">
-        <v>0.01031781623508969</v>
+        <v>0.01340485066665175</v>
       </c>
       <c r="T27">
-        <v>0.01171799420434879</v>
+        <v>0.01492432562813468</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>755.5280328485876</v>
+        <v>1667.64421598829</v>
       </c>
       <c r="R28">
-        <v>6799.752295637289</v>
+        <v>15008.79794389461</v>
       </c>
       <c r="S28">
-        <v>0.004879054741764487</v>
+        <v>0.007343011966023499</v>
       </c>
       <c r="T28">
-        <v>0.005541166258830911</v>
+        <v>0.008175361620764498</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>253.9962054610795</v>
+        <v>714.1406502893449</v>
       </c>
       <c r="R29">
-        <v>1523.977232766477</v>
+        <v>4284.843901736069</v>
       </c>
       <c r="S29">
-        <v>0.001640258649268971</v>
+        <v>0.003144521649296018</v>
       </c>
       <c r="T29">
-        <v>0.001241899830211485</v>
+        <v>0.002333974280696456</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>585.6423716833064</v>
+        <v>1135.010081782362</v>
       </c>
       <c r="R30">
-        <v>5270.781345149757</v>
+        <v>10215.09073604125</v>
       </c>
       <c r="S30">
-        <v>0.003781965812395306</v>
+        <v>0.00499770426580229</v>
       </c>
       <c r="T30">
-        <v>0.00429519701271441</v>
+        <v>0.005564207144918645</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>556.0171581418043</v>
+        <v>1256.813651296296</v>
       </c>
       <c r="R31">
-        <v>5004.154423276238</v>
+        <v>11311.32286166667</v>
       </c>
       <c r="S31">
-        <v>0.003590651880521095</v>
+        <v>0.005534032734351051</v>
       </c>
       <c r="T31">
-        <v>0.004077920847503304</v>
+        <v>0.006161329851266541</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>2313.273843111748</v>
+        <v>8529.903033367018</v>
       </c>
       <c r="R32">
-        <v>13879.64305867049</v>
+        <v>51179.4182002021</v>
       </c>
       <c r="S32">
-        <v>0.01493867761687147</v>
+        <v>0.03755907851478674</v>
       </c>
       <c r="T32">
-        <v>0.01131061933692298</v>
+        <v>0.02787766567922866</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>3410.504860765257</v>
+        <v>13894.07217175289</v>
       </c>
       <c r="R33">
-        <v>30694.54374688732</v>
+        <v>125046.649545776</v>
       </c>
       <c r="S33">
-        <v>0.02202438452215885</v>
+        <v>0.06117871979876312</v>
       </c>
       <c r="T33">
-        <v>0.02501320088521264</v>
+        <v>0.06811348805702225</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>1612.748234082395</v>
+        <v>7611.001476337902</v>
       </c>
       <c r="R34">
-        <v>14514.73410674156</v>
+        <v>68499.01328704112</v>
       </c>
       <c r="S34">
-        <v>0.01041481795070461</v>
+        <v>0.03351294861239407</v>
       </c>
       <c r="T34">
-        <v>0.01182815952571999</v>
+        <v>0.03731172918580838</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>542.1796598023491</v>
+        <v>3259.283659880652</v>
       </c>
       <c r="R35">
-        <v>3253.077958814094</v>
+        <v>19555.70195928391</v>
       </c>
       <c r="S35">
-        <v>0.003501291977311776</v>
+        <v>0.01435135785302094</v>
       </c>
       <c r="T35">
-        <v>0.002650956246493353</v>
+        <v>0.01065208125678539</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>1250.110730074473</v>
+        <v>5180.099763056785</v>
       </c>
       <c r="R36">
-        <v>11250.99657067026</v>
+        <v>46620.89786751106</v>
       </c>
       <c r="S36">
-        <v>0.008072974688052204</v>
+        <v>0.02280914249013206</v>
       </c>
       <c r="T36">
-        <v>0.009168516714295591</v>
+        <v>0.0253946185814751</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>1186.872823939829</v>
+        <v>5736.001998381237</v>
       </c>
       <c r="R37">
-        <v>10681.85541545846</v>
+        <v>51624.01798543114</v>
       </c>
       <c r="S37">
-        <v>0.007664596451413925</v>
+        <v>0.02525690486461886</v>
       </c>
       <c r="T37">
-        <v>0.008704719559832323</v>
+        <v>0.02811984123748115</v>
       </c>
     </row>
   </sheetData>
